--- a/soccer/Premier League.xlsx
+++ b/soccer/Premier League.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvray\OneDrive\Documents\Web Development\NBA TEAMS\nba_socmed_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/kirt_raynes_spglobal_com/Documents/Documents/Notebooks/NBA Teams/soccer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F04B7B-E5AD-437F-8E46-48AE2C302850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F7F04B7B-E5AD-437F-8E46-48AE2C302850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BF6CB9D-1A17-4F28-B4EA-1A7283318230}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feb 2024 Premier League" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -841,16 +841,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,7 +886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -923,7 +921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -958,7 +956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -993,7 +991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1028,7 +1026,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1063,7 +1061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1098,7 +1096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1133,7 +1131,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -1168,7 +1166,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -1203,7 +1201,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -1238,7 +1236,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -1273,7 +1271,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -1308,7 +1306,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -1343,7 +1341,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -1378,7 +1376,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -1413,7 +1411,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -1448,7 +1446,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -1483,7 +1481,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -1518,7 +1516,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -1553,7 +1551,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>144</v>
       </c>
